--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1020,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1067,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1483,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1530,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1690,10 +1714,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1737,28 +1761,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1783,28 +1807,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +2003,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2050,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2096,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2181,10 +2205,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2228,28 +2252,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2274,28 +2298,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2470,10 +2494,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2517,28 +2541,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2563,28 +2587,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2759,10 +2783,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2806,28 +2830,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2852,28 +2876,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3019,10 +3043,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3066,28 +3090,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3112,28 +3136,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3221,10 +3245,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3268,28 +3292,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3314,28 +3338,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3452,10 +3476,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3499,28 +3523,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3545,28 +3569,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3678,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3725,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3771,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3856,10 +3880,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3903,28 +3927,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3949,28 +3973,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4290,10 +4314,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4337,28 +4361,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4383,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4724,10 +4748,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4771,28 +4795,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4817,28 +4841,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5013,10 +5037,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5060,28 +5084,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5106,28 +5130,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5302,10 +5326,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5349,28 +5373,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5395,28 +5419,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5678,10 +5702,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5725,28 +5749,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5771,28 +5795,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5938,10 +5962,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5985,28 +6009,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6031,28 +6055,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6169,10 +6193,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6216,28 +6240,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6262,28 +6286,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6395,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
